--- a/biology/Zoologie/Diporiphora_winneckei/Diporiphora_winneckei.xlsx
+++ b/biology/Zoologie/Diporiphora_winneckei/Diporiphora_winneckei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diporiphora winneckei est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diporiphora winneckei est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le sud du Territoire du Nord, dans le nord de l'Australie-Méridionale et dans le sud-ouest du Queensland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le sud du Territoire du Nord, dans le nord de l'Australie-Méridionale et dans le sud-ouest du Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été redéfinie par Doughty, Kealley et Melville en 2012[2], les populations de l'Ouest de l'Australie ont été décrites sous les noms Diporiphora adductus, Diporiphora paraconvergens et Diporiphora vescus comme espèces nouvelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été redéfinie par Doughty, Kealley et Melville en 2012, les populations de l'Ouest de l'Australie ont été décrites sous les noms Diporiphora adductus, Diporiphora paraconvergens et Diporiphora vescus comme espèces nouvelles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Winnecke[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Winnecke.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lucas &amp; Frost, 1896 : Reptilia. Report on the work of the Horn Scientific Expedition to Central Australia, vol. 2, p. 112-151.</t>
         </is>
